--- a/biology/Médecine/Liste_de_médecines_non_conventionnelles/Liste_de_médecines_non_conventionnelles.xlsx
+++ b/biology/Médecine/Liste_de_médecines_non_conventionnelles/Liste_de_médecines_non_conventionnelles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_de_m%C3%A9decines_non_conventionnelles</t>
+          <t>Liste_de_médecines_non_conventionnelles</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette liste a pour objet de recenser les médecines non conventionnelles ou médecines traditionnelles qui sont également connues sous les noms de médecines alternatives, médecines parallèles, médecines holistiques, médecines naturelles ou encore médecines douces. Elles sont aussi qualifiées de pseudo-médecines car leur efficacité au-delà de l'effet placebo n'est généralement pas, ou insuffisamment, démontrée scientifiquement. Ne peuvent figurer dans cette liste que les thérapies présentant une notoriété suffisante, c'est-à-dire connues a un niveau au moins national, voire international. Ce référencement est un état des lieux encyclopédique et ne peut être utilisé pour faire la promotion d'une nouvelle thérapie quelle qu’elle soit. Ne peuvent figurer non plus des préparations médicinales isolées (ex : une décoction) ou des techniques thérapeutiques très spécifiques (ex : prise de poul) qui ne constituent pas des systèmes médicaux à part entière. De même, les pratiques sportives, même si elles peuvent contribuer au maintien de la santé ne peuvent apparaître ici sauf si elles ont été conçues avec des visées curatives majeures.
 Cette liste concerne les thérapies qui proposent de traiter les maladies ou dysfonctionnements physiques. Pour les thérapies qui sont plus spécifiquement à visée psycho-thérapeutique, voir Liste des psychothérapies.
-En France, certaines de ces thérapies sont listées par la Mission interministérielle de vigilance et de lutte contre les dérives sectaires (Miviludes) parmi les thérapies à risque d'abus de faiblesse ou de dérive sectaire dans son Guide santé et dérives sectaires[1]. Elles peuvent présenter un risque vital dans le cas de maladies graves lorsqu'elles sont exclusivement utilisées à la place de traitements conventionnels efficaces[2].
+En France, certaines de ces thérapies sont listées par la Mission interministérielle de vigilance et de lutte contre les dérives sectaires (Miviludes) parmi les thérapies à risque d'abus de faiblesse ou de dérive sectaire dans son Guide santé et dérives sectaires. Elles peuvent présenter un risque vital dans le cas de maladies graves lorsqu'elles sont exclusivement utilisées à la place de traitements conventionnels efficaces.
 Sommaire :
 Haut – A
 B
@@ -522,7 +534,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_de_m%C3%A9decines_non_conventionnelles</t>
+          <t>Liste_de_médecines_non_conventionnelles</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -540,7 +552,9 @@
           <t>A</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Access Bars (technique) : stimulant des points situés sur le crâne.
 Acupuncture : d'origine chinoise, application de très fines aiguilles en certains points du corps, sur le parcours de "méridiens" d'énergie.
@@ -567,7 +581,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_de_m%C3%A9decines_non_conventionnelles</t>
+          <t>Liste_de_médecines_non_conventionnelles</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -585,7 +599,9 @@
           <t>B</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Bach (Thérapie florale de) : utilisation de 38 élixirs floraux (les fleurs de Bach) qui visent à agir sur les états émotionnels
 Balnéothérapie : utilisation des bienfaits de l'eau et des bains. Méthode à rapprocher du thermalisme
@@ -606,7 +622,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_de_m%C3%A9decines_non_conventionnelles</t>
+          <t>Liste_de_médecines_non_conventionnelles</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -624,7 +640,9 @@
           <t>C</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Chélation (Thérapie par) : retrait du sang de supposées toxines ou d'ions calcium
 chinoise (Médecine traditionnelle) : ensemble de thérapies inspirées de traditions médicales chinoises
@@ -644,7 +662,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Liste_de_m%C3%A9decines_non_conventionnelles</t>
+          <t>Liste_de_médecines_non_conventionnelles</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -662,7 +680,9 @@
           <t>D</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Daoyin (voir Tao Yin)
 Dentisterie holistique : elle ne considère pas la dent comme un organe isolé du reste du corps mais comme un élément vivant en interaction permanente avec l'individu à de multiples niveaux
@@ -679,7 +699,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Liste_de_m%C3%A9decines_non_conventionnelles</t>
+          <t>Liste_de_médecines_non_conventionnelles</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -697,7 +717,9 @@
           <t>E</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Électrothérapie : consiste en l'emploi de faibles courants électriques dans un but thérapeutique
 Étiopathie : traitement manipulatif des os et des viscères proche de l'ostéopathie et de la chiropraxie
@@ -712,7 +734,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Liste_de_m%C3%A9decines_non_conventionnelles</t>
+          <t>Liste_de_médecines_non_conventionnelles</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -730,7 +752,9 @@
           <t>F</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Fangothérapie : application de boues d'origine volcanique (fangoïdes), en cataplasme, à des fins thérapeutiques (rhumatisme, arthrose...). Voir aussi bain de boue
 Fasciathérapie ou fasciapulsologie : Libération des fascias par le toucher
@@ -746,7 +770,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Liste_de_m%C3%A9decines_non_conventionnelles</t>
+          <t>Liste_de_médecines_non_conventionnelles</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -764,7 +788,9 @@
           <t>G</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Gua sha : est une médecine traditionnelle chinoise et une pseudo-médecine.
 Gélothérapie : est une thérapie basée sur le rire
@@ -781,7 +807,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Liste_de_m%C3%A9decines_non_conventionnelles</t>
+          <t>Liste_de_médecines_non_conventionnelles</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -799,7 +825,9 @@
           <t>H</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Méthode Hamer : traitement du cancer d'après Ryke Geerd Hamer, particulièrement controversé, son auteur fut condamné à trois ans de prison ferme en 2004.
 Haptonomie : méthode de préparation affective à la naissance, communication avec le bébé, gestion de la douleur durant l'accouchement.
@@ -817,7 +845,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Liste_de_m%C3%A9decines_non_conventionnelles</t>
+          <t>Liste_de_médecines_non_conventionnelles</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -835,7 +863,9 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Instinctothérapie : pratique alimentaire crudivore consistant à laisser l'instinct alimentaire réguler le fonctionnement du métabolisme.
 intégrative (Médecine) : désigne le recours simultané à la médecine conventionnelle et aux médecines alternatives dans le suivi d'un patient
@@ -851,7 +881,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Liste_de_m%C3%A9decines_non_conventionnelles</t>
+          <t>Liste_de_médecines_non_conventionnelles</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -869,7 +899,9 @@
           <t>J</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Jeûne thérapeutique : nettoyage du corps humain par la privation ou la limitation de l'alimentation</t>
         </is>
@@ -881,7 +913,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Liste_de_m%C3%A9decines_non_conventionnelles</t>
+          <t>Liste_de_médecines_non_conventionnelles</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -899,7 +931,9 @@
           <t>K</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>Kallawaya : médecins itinérants du nord de la cordillère andine.
 Kampo (Médecine) : Médecine traditionnelle japonaise
@@ -914,7 +948,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Liste_de_m%C3%A9decines_non_conventionnelles</t>
+          <t>Liste_de_médecines_non_conventionnelles</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -932,7 +966,9 @@
           <t>L</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>Lithothérapie : utilisation de cristaux, roches et minéraux à des fins thérapeutiques.
 Lomilomi : massage hawaïen.
@@ -947,7 +983,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Liste_de_m%C3%A9decines_non_conventionnelles</t>
+          <t>Liste_de_médecines_non_conventionnelles</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -965,7 +1001,9 @@
           <t>M</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t>Macrobiotique : alimentation à visée énergétique et de santé
 Magnétisme animal : imposition des mains par des magnétiseurs
@@ -995,7 +1033,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Liste_de_m%C3%A9decines_non_conventionnelles</t>
+          <t>Liste_de_médecines_non_conventionnelles</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1013,7 +1051,9 @@
           <t>N</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t>Naturopathie : vise à rééquilibrer ou garder le fonctionnement de l'organisme par des moyens dits « naturels » : rééquilibrage  alimentaire, hygiène de vie, phytothérapie, réflexologie, exercices physiques, relaxation... à tous les âges de la vie.
 Neuralthérapie : injection dermique d’une faible quantité de procaïne destinée à traiter des maladies aiguës ou chroniques grâce à son action supposée sur le cerveau.
@@ -1027,7 +1067,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Liste_de_m%C3%A9decines_non_conventionnelles</t>
+          <t>Liste_de_médecines_non_conventionnelles</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1045,7 +1085,9 @@
           <t>O</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t>Orthothérapie : consiste à rétablir un ensemble d'éléments physiques dans un équilibre idéal par des mobilisations passives, actives, contrariés dans un climat de compréhension et conseils préventifs.
 Oligothérapie : corriger un dysfonctionnement métabolique en administrant des oligo-éléments
@@ -1063,7 +1105,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Liste_de_m%C3%A9decines_non_conventionnelles</t>
+          <t>Liste_de_médecines_non_conventionnelles</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1081,7 +1123,9 @@
           <t>P</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
         <is>
           <t>Pratique du secret : pratique populaire associant une courte prière et une gestuelle destinée à guérir des affections, généralement dermatologique.
 Pélothérapie : bains de boue en station thermale
@@ -1098,7 +1142,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Liste_de_m%C3%A9decines_non_conventionnelles</t>
+          <t>Liste_de_médecines_non_conventionnelles</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1116,7 +1160,9 @@
           <t>Q</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
         <is>
           <t>Qi gong : mouvements accompagnés de respirations et de visualisations mentales qui vise un mieux être général de l'esprit et du corps
 Médecine quantique : discipline incorporant le jargon de la physique quantique dans un discours à prétention médicale, pour produire un galimatias pseudo-scientifique</t>
@@ -1129,7 +1175,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Liste_de_m%C3%A9decines_non_conventionnelles</t>
+          <t>Liste_de_médecines_non_conventionnelles</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1147,7 +1193,9 @@
           <t>R</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
         <is>
           <t>Radiesthésie : utilisation d'un pendule ou d'une baguette permettant (entre autres) de diagnostiquer la maladie et le traitement adéquat
 Rebouteux : techniques empiriques et intuitives, avec des gestes supposés être quasi-innés ou transmis, de guérison des douleurs, fractures et luxations notamment. Encore parfois très présent dans la tradition populaire et rurale.
@@ -1171,7 +1219,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Liste_de_m%C3%A9decines_non_conventionnelles</t>
+          <t>Liste_de_médecines_non_conventionnelles</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1189,14 +1237,16 @@
           <t>S</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
         <is>
           <t>Secret (pratique du) : traitement par des prières ou incantations transmises secrètement.
 Science chrétienne : mouvement religieux visant la guérison physique à l'aide du retour à la foi chrétienne primitive
 Shiatsu : technique orientale de pression manuelle sur des points précis, méthode proche du Do In, une des versions manuelle de l'acupuncture
 Siddha (Médecine) : médecine traditionnelle originaire du sud de l'Inde.
 Méthode Simonton ou Psycho-oncologie : traitement du cancer par soin psychique.
-Somatopathie[3] : thérapie manuelle avec une approche manuelle et informationnelle fondée sur l'ostéopathie, inspirée des travaux de Maurice Raymond POYET, et complétée avec une compréhension des somatisations et émotions vécues personnellement ou transmises entre générations.
+Somatopathie : thérapie manuelle avec une approche manuelle et informationnelle fondée sur l'ostéopathie, inspirée des travaux de Maurice Raymond POYET, et complétée avec une compréhension des somatisations et émotions vécues personnellement ou transmises entre générations.
 Sonothérapie : utilise les sons et les vibrations dans un but thérapeutique. C'est une technique de bien-être par le massage sonore
 Sophrologie : étudie les modifications de la conscience humaine
 Spagyrie : fabrication de remèdes selon les principes de l'alchimie
@@ -1210,7 +1260,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Liste_de_m%C3%A9decines_non_conventionnelles</t>
+          <t>Liste_de_médecines_non_conventionnelles</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1228,7 +1278,9 @@
           <t>T</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
         <is>
           <t>Tai-chi-chuan : art martial interne chinois aux mouvements lents et circulaires, visant un mieux être général à la fois psychologique et physique, une harmonie avec l'univers.
 Tao Yin : forme de gymnastique douce d'origine chinoise (proche du Qi gong) visant à préserver ou à rétablir la santé et à prolonger la vie
@@ -1239,7 +1291,7 @@
 Thermodermie : méthode utilisant l'alternance de dépressions et la diffusion intradermique éventuellement pulsée, d'un rayonnement rouge et infrarouge accompagnée d'un contrôle des températures cutanées.
 Tibétaine (médecine traditionnelle) : combine une approche complexe de diagnostic avec l'utilisation de plantes et de minéraux.
 Toucher thérapeutique : méthode prétendant détecter et rééquilibrer le fluide énergétique des malades
-Trame : méthode qui a pour but d'éliminer le trop-plein émotionnel grâce à une libération progressive des émotions, permettant une meilleure circulation de l’énergie[4].</t>
+Trame : méthode qui a pour but d'éliminer le trop-plein émotionnel grâce à une libération progressive des émotions, permettant une meilleure circulation de l’énergie.</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1301,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Liste_de_m%C3%A9decines_non_conventionnelles</t>
+          <t>Liste_de_médecines_non_conventionnelles</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1268,6 +1320,8 @@
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1275,7 +1329,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Liste_de_m%C3%A9decines_non_conventionnelles</t>
+          <t>Liste_de_médecines_non_conventionnelles</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1293,7 +1347,9 @@
           <t>V</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
         <is>
           <t>Ventouses : Application de ventouse sur la peau, avec ou sans scarification.
 Vertébrothérapie : traitement des problèmes mécaniques du dos par des sur actions sur la colonne vertébrale et le sacrum
@@ -1307,7 +1363,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Liste_de_m%C3%A9decines_non_conventionnelles</t>
+          <t>Liste_de_médecines_non_conventionnelles</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1326,6 +1382,8 @@
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1333,7 +1391,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Liste_de_m%C3%A9decines_non_conventionnelles</t>
+          <t>Liste_de_médecines_non_conventionnelles</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1352,6 +1410,8 @@
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1359,7 +1419,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Liste_de_m%C3%A9decines_non_conventionnelles</t>
+          <t>Liste_de_médecines_non_conventionnelles</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1377,7 +1437,9 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
         <is>
           <t>Yogathérapie : regroupe diverses techniques consistant généralement en la tenue de postures accompagnées d'exercices respiratoires. En dehors de sa dimension spirituelle, le yoga pratiqué en occident vise généralement à réduire le stress et à atteindre un mieux-être général
 Yunâni : il s'agit de la médecine grecque antique qui connait aujourd'hui des développements dans plusieurs médecines traditionnelles du Moyen-Orient et d'Extrême-orient, notamment l'ayurvéda</t>
@@ -1390,7 +1452,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Liste_de_m%C3%A9decines_non_conventionnelles</t>
+          <t>Liste_de_médecines_non_conventionnelles</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1408,7 +1470,9 @@
           <t>Z</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
         <is>
           <t xml:space="preserve">Sommaire :
 Haut – A
